--- a/data/trans_orig/P6507-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D899B859-9E1A-4CAF-BD9E-2EE24A191154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9130ED-6694-455E-8D0C-5C0F540CB98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6ECBD22B-4658-4660-87BD-7BF93FA6E3FD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{099BE1A7-B1B7-4C65-B8F9-6143AE0668A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="225">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>81,31%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>98,64%</t>
@@ -92,10 +92,10 @@
     <t>89,03%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -125,7 +125,7 @@
     <t>3,96%</t>
   </si>
   <si>
-    <t>9,38%</t>
+    <t>9,18%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>7,44%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>0%</t>
@@ -149,10 +149,10 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -161,13 +161,13 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,55%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -179,25 +179,25 @@
     <t>86,05%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>87,24%</t>
+    <t>87,35%</t>
   </si>
   <si>
     <t>91,5%</t>
@@ -206,460 +206,472 @@
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>2,3%</t>
@@ -668,31 +680,31 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>2,0%</t>
@@ -1110,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5CF413-278A-43A4-9CED-23CCC9B7D362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BE888-8D2E-421B-9E60-22A6E738D817}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1575,10 +1587,10 @@
         <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1605,13 @@
         <v>28007</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1608,13 +1620,13 @@
         <v>2948</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -1623,13 +1635,13 @@
         <v>30956</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,13 +1656,13 @@
         <v>10675</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1659,13 +1671,13 @@
         <v>2003</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -1674,13 +1686,13 @@
         <v>12678</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,7 +1748,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1748,13 +1760,13 @@
         <v>476118</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>267</v>
@@ -1763,13 +1775,13 @@
         <v>283271</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>726</v>
@@ -1778,13 +1790,13 @@
         <v>759389</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,13 +1811,13 @@
         <v>46561</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -1814,13 +1826,13 @@
         <v>13590</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>58</v>
@@ -1829,13 +1841,13 @@
         <v>60151</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1862,13 @@
         <v>33645</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1865,13 +1877,13 @@
         <v>4006</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -1880,13 +1892,13 @@
         <v>37651</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1913,13 @@
         <v>11289</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1916,13 +1928,13 @@
         <v>3680</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1934,10 +1946,10 @@
         <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +2005,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2005,13 +2017,13 @@
         <v>364356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -2020,13 +2032,13 @@
         <v>160329</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>490</v>
@@ -2035,13 +2047,13 @@
         <v>524685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2068,13 @@
         <v>42254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2071,13 +2083,13 @@
         <v>3076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -2086,13 +2098,13 @@
         <v>45330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2119,13 @@
         <v>21812</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2122,13 +2134,13 @@
         <v>5395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -2137,13 +2149,13 @@
         <v>27207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2170,13 @@
         <v>8838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2179,7 +2191,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2188,13 +2200,13 @@
         <v>8838</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2262,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2262,13 +2274,13 @@
         <v>134351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -2277,13 +2289,13 @@
         <v>60319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -2292,13 +2304,13 @@
         <v>194669</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2325,13 @@
         <v>16988</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2328,13 +2340,13 @@
         <v>1062</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2343,13 +2355,13 @@
         <v>18050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2376,13 @@
         <v>7454</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2379,13 +2391,13 @@
         <v>1890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2394,13 +2406,13 @@
         <v>9344</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2427,13 @@
         <v>4576</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2436,7 +2448,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2445,13 +2457,13 @@
         <v>4576</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2519,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2522,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>44</v>
@@ -2537,7 +2549,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>44</v>
@@ -2552,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>44</v>
@@ -2576,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2591,7 +2603,7 @@
         <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2606,7 +2618,7 @@
         <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2639,7 @@
         <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2642,7 +2654,7 @@
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2657,7 +2669,7 @@
         <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2690,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2693,7 +2705,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2708,7 +2720,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2788,13 @@
         <v>1600710</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H34" s="7">
         <v>932</v>
@@ -2791,13 +2803,13 @@
         <v>973497</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M34" s="7">
         <v>2456</v>
@@ -2806,13 +2818,13 @@
         <v>2574208</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2839,13 @@
         <v>162522</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>28</v>
@@ -2842,13 +2854,13 @@
         <v>29934</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="M35" s="7">
         <v>187</v>
@@ -2857,13 +2869,13 @@
         <v>192457</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2890,13 @@
         <v>104049</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -2893,13 +2905,13 @@
         <v>14240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>117</v>
@@ -2908,13 +2920,13 @@
         <v>118290</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2941,13 @@
         <v>37217</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -2944,13 +2956,13 @@
         <v>5683</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -2959,13 +2971,13 @@
         <v>42900</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,7 +3033,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9130ED-6694-455E-8D0C-5C0F540CB98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0397E3A-8319-4181-8EAB-8FC901BD7C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{099BE1A7-B1B7-4C65-B8F9-6143AE0668A0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C1BF0DE-91DC-4BAC-9080-EB2E85FE3274}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="216">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>81,31%</t>
   </si>
   <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>95,26%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>89,03%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -116,370 +116,358 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
     <t>4,49%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>6,5%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>1,18%</t>
@@ -488,213 +476,204 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -702,12 +681,6 @@
   </si>
   <si>
     <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1122,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BE888-8D2E-421B-9E60-22A6E738D817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABFA82E-6C2C-44CE-A7E9-F5173EC8BFEB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1584,10 +1557,10 @@
         <v>48976</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>62</v>
@@ -1865,10 +1838,10 @@
         <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1877,13 +1850,13 @@
         <v>4006</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -1892,13 +1865,13 @@
         <v>37651</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1886,13 @@
         <v>11289</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1928,13 +1901,13 @@
         <v>3680</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1943,13 +1916,13 @@
         <v>14969</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +1978,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2017,13 +1990,13 @@
         <v>364356</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -2032,13 +2005,13 @@
         <v>160329</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>490</v>
@@ -2047,13 +2020,13 @@
         <v>524685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2041,13 @@
         <v>42254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2083,13 +2056,13 @@
         <v>3076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -2098,13 +2071,13 @@
         <v>45330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2092,13 @@
         <v>21812</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2134,13 +2107,13 @@
         <v>5395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -2149,13 +2122,13 @@
         <v>27207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2143,13 @@
         <v>8838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2191,7 +2164,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2200,13 +2173,13 @@
         <v>8838</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2235,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2247,13 @@
         <v>134351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -2289,13 +2262,13 @@
         <v>60319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -2304,13 +2277,13 @@
         <v>194669</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2298,13 @@
         <v>16988</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2340,13 +2313,13 @@
         <v>1062</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2355,13 +2328,13 @@
         <v>18050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2349,13 @@
         <v>7454</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2391,13 +2364,13 @@
         <v>1890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2406,13 +2379,13 @@
         <v>9344</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2400,13 @@
         <v>4576</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2448,7 +2421,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2457,13 +2430,13 @@
         <v>4576</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,7 +2492,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2534,7 +2507,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>44</v>
@@ -2549,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>44</v>
@@ -2564,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>44</v>
@@ -2588,7 +2561,7 @@
         <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2603,7 +2576,7 @@
         <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2618,7 +2591,7 @@
         <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2612,7 @@
         <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2654,7 +2627,7 @@
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2669,7 +2642,7 @@
         <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2663,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2705,7 +2678,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2720,7 +2693,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2761,13 @@
         <v>1600710</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>932</v>
@@ -2803,13 +2776,13 @@
         <v>973497</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>2456</v>
@@ -2818,13 +2791,13 @@
         <v>2574208</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2812,13 @@
         <v>162522</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
         <v>28</v>
@@ -2854,13 +2827,13 @@
         <v>29934</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7">
         <v>187</v>
@@ -2869,13 +2842,13 @@
         <v>192457</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2863,13 @@
         <v>104049</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -2905,13 +2878,13 @@
         <v>14240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="M36" s="7">
         <v>117</v>
@@ -2920,13 +2893,13 @@
         <v>118290</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2914,13 @@
         <v>37217</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -2956,13 +2929,13 @@
         <v>5683</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -2971,13 +2944,13 @@
         <v>42900</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3006,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0397E3A-8319-4181-8EAB-8FC901BD7C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1DBD39-0C53-4539-8323-1205F2BF8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C1BF0DE-91DC-4BAC-9080-EB2E85FE3274}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54ABE023-D463-435B-8D4E-A356267CF103}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,613 +74,628 @@
     <t>81,31%</t>
   </si>
   <si>
-    <t>75,35%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>7,47%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1095,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABFA82E-6C2C-44CE-A7E9-F5173EC8BFEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF53E8-C5D3-4D36-8DFD-F08050A1C96B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1557,13 +1572,13 @@
         <v>48976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1593,13 @@
         <v>28007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1593,13 +1608,13 @@
         <v>2948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -1608,13 +1623,13 @@
         <v>30956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,13 +1644,13 @@
         <v>10675</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1644,13 +1659,13 @@
         <v>2003</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -1659,13 +1674,13 @@
         <v>12678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,7 +1736,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1733,13 +1748,13 @@
         <v>476118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>267</v>
@@ -1748,13 +1763,13 @@
         <v>283271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>726</v>
@@ -1763,13 +1778,13 @@
         <v>759389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1799,13 @@
         <v>46561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -1799,13 +1814,13 @@
         <v>13590</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>58</v>
@@ -1814,13 +1829,13 @@
         <v>60151</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1850,13 @@
         <v>33645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1850,13 +1865,13 @@
         <v>4006</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -1865,13 +1880,13 @@
         <v>37651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1901,13 @@
         <v>11289</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1901,13 +1916,13 @@
         <v>3680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1916,13 +1931,13 @@
         <v>14969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,7 +1993,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1990,13 +2005,13 @@
         <v>364356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -2005,13 +2020,13 @@
         <v>160329</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>490</v>
@@ -2020,13 +2035,13 @@
         <v>524685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2056,13 @@
         <v>42254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2056,13 +2071,13 @@
         <v>3076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -2071,13 +2086,13 @@
         <v>45330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2107,13 @@
         <v>21812</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2107,13 +2122,13 @@
         <v>5395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -2122,13 +2137,13 @@
         <v>27207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2158,13 @@
         <v>8838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2164,7 +2179,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2173,13 +2188,13 @@
         <v>8838</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,7 +2250,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2247,13 +2262,13 @@
         <v>134351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -2262,13 +2277,13 @@
         <v>60319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -2277,13 +2292,13 @@
         <v>194669</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2313,13 @@
         <v>16988</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2313,13 +2328,13 @@
         <v>1062</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2328,13 +2343,13 @@
         <v>18050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2364,13 @@
         <v>7454</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2364,13 +2379,13 @@
         <v>1890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2379,13 +2394,13 @@
         <v>9344</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2415,13 @@
         <v>4576</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2421,7 +2436,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2430,13 +2445,13 @@
         <v>4576</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,7 +2507,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2507,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>44</v>
@@ -2522,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>44</v>
@@ -2537,7 +2552,7 @@
         <v>16</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>44</v>
@@ -2561,7 +2576,7 @@
         <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2576,7 +2591,7 @@
         <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2591,7 +2606,7 @@
         <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2627,7 @@
         <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2627,7 +2642,7 @@
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2642,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2678,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2678,7 +2693,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2693,7 +2708,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2776,13 @@
         <v>1600710</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H34" s="7">
         <v>932</v>
@@ -2776,13 +2791,13 @@
         <v>973497</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7">
         <v>2456</v>
@@ -2791,13 +2806,13 @@
         <v>2574208</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2827,13 @@
         <v>162522</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H35" s="7">
         <v>28</v>
@@ -2827,13 +2842,13 @@
         <v>29934</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M35" s="7">
         <v>187</v>
@@ -2842,13 +2857,13 @@
         <v>192457</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2878,13 @@
         <v>104049</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -2878,13 +2893,13 @@
         <v>14240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>117</v>
@@ -2893,13 +2908,13 @@
         <v>118290</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2929,13 @@
         <v>37217</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -2929,13 +2944,13 @@
         <v>5683</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -2944,13 +2959,13 @@
         <v>42900</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,7 +3021,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1DBD39-0C53-4539-8323-1205F2BF8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A89562-605A-4723-96ED-D4494DD2DBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54ABE023-D463-435B-8D4E-A356267CF103}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{035E78C9-47BA-4680-BED9-D73238CAF084}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="225">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -173,7 +173,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>86,05%</t>
@@ -281,7 +281,7 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>83,88%</t>
@@ -386,7 +386,7 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>83,33%</t>
@@ -488,7 +488,7 @@
     <t>2,53%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>82,24%</t>
@@ -578,25 +578,37 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,74%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>84,05%</t>
@@ -1110,8 +1122,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF53E8-C5D3-4D36-8DFD-F08050A1C96B}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBCA285-7F6F-4150-8E28-8590AF2A537C}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2513,10 +2525,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>16</v>
@@ -2543,10 +2555,10 @@
         <v>44</v>
       </c>
       <c r="M29" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>16</v>
@@ -2717,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>44</v>
@@ -2747,10 +2759,10 @@
         <v>44</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>44</v>
@@ -2764,55 +2776,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1524</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>1600710</v>
+        <v>2471</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H34" s="7">
-        <v>932</v>
-      </c>
-      <c r="I34" s="7">
-        <v>973497</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M34" s="7">
-        <v>2456</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>2574208</v>
+        <v>2471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,49 +2831,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>162522</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H35" s="7">
-        <v>28</v>
-      </c>
-      <c r="I35" s="7">
-        <v>29934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="M35" s="7">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>192457</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,49 +2880,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>104049</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="H36" s="7">
-        <v>14</v>
-      </c>
-      <c r="I36" s="7">
-        <v>14240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="M36" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>118290</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,49 +2929,47 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>37217</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="H37" s="7">
-        <v>5</v>
-      </c>
-      <c r="I37" s="7">
-        <v>5683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>42900</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,63 +2978,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1524</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1600710</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="7">
+        <v>932</v>
+      </c>
+      <c r="I39" s="7">
+        <v>973497</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2456</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2574208</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>159</v>
+      </c>
+      <c r="D40" s="7">
+        <v>162522</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="7">
+        <v>28</v>
+      </c>
+      <c r="I40" s="7">
+        <v>29934</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M40" s="7">
+        <v>187</v>
+      </c>
+      <c r="N40" s="7">
+        <v>192457</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>103</v>
+      </c>
+      <c r="D41" s="7">
+        <v>104049</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="7">
+        <v>14</v>
+      </c>
+      <c r="I41" s="7">
+        <v>14240</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M41" s="7">
+        <v>117</v>
+      </c>
+      <c r="N41" s="7">
+        <v>118290</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7">
+        <v>37</v>
+      </c>
+      <c r="D42" s="7">
+        <v>37217</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H42" s="7">
+        <v>5</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5683</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M42" s="7">
+        <v>42</v>
+      </c>
+      <c r="N42" s="7">
+        <v>42900</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1823</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1904499</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="7">
         <v>979</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1023355</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="7">
         <v>2802</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2927854</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>220</v>
+      <c r="O43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
